--- a/Code/Results/Cases/Case_3_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9817520578017513</v>
+        <v>1.018623176781927</v>
       </c>
       <c r="D2">
-        <v>1.002686269766172</v>
+        <v>1.024047941851572</v>
       </c>
       <c r="E2">
-        <v>0.9906117272504722</v>
+        <v>1.019854250497469</v>
       </c>
       <c r="F2">
-        <v>0.9582146153189731</v>
+        <v>1.032164508047733</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033825453555167</v>
+        <v>1.028596566759497</v>
       </c>
       <c r="J2">
-        <v>1.004492605621897</v>
+        <v>1.023830561357466</v>
       </c>
       <c r="K2">
-        <v>1.014108307017946</v>
+        <v>1.026877588401623</v>
       </c>
       <c r="L2">
-        <v>1.002203423908695</v>
+        <v>1.022696264795027</v>
       </c>
       <c r="M2">
-        <v>0.9702885041359626</v>
+        <v>1.034970528133968</v>
       </c>
       <c r="N2">
-        <v>1.005229648572762</v>
+        <v>1.011980991928231</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9870239062212468</v>
+        <v>1.019700392141955</v>
       </c>
       <c r="D3">
-        <v>1.006464110199483</v>
+        <v>1.024826104283549</v>
       </c>
       <c r="E3">
-        <v>0.9948601893131824</v>
+        <v>1.02077192242974</v>
       </c>
       <c r="F3">
-        <v>0.96991879492285</v>
+        <v>1.034336153691982</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035412814543169</v>
+        <v>1.028828947857333</v>
       </c>
       <c r="J3">
-        <v>1.007874673795471</v>
+        <v>1.024543509490078</v>
       </c>
       <c r="K3">
-        <v>1.017014944298053</v>
+        <v>1.027462837790671</v>
       </c>
       <c r="L3">
-        <v>1.005559260172663</v>
+        <v>1.023419744398527</v>
       </c>
       <c r="M3">
-        <v>0.9809516106114425</v>
+        <v>1.036947245532658</v>
       </c>
       <c r="N3">
-        <v>1.006390883520399</v>
+        <v>1.012221928229621</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9903503560386347</v>
+        <v>1.020397300185583</v>
       </c>
       <c r="D4">
-        <v>1.008847475847283</v>
+        <v>1.025329252403386</v>
       </c>
       <c r="E4">
-        <v>0.997547163031455</v>
+        <v>1.021365971661623</v>
       </c>
       <c r="F4">
-        <v>0.9771541430377808</v>
+        <v>1.035735540219732</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036394076308057</v>
+        <v>1.028977463979154</v>
       </c>
       <c r="J4">
-        <v>1.010004163640762</v>
+        <v>1.02500419355662</v>
       </c>
       <c r="K4">
-        <v>1.018840279657386</v>
+        <v>1.027840505261647</v>
       </c>
       <c r="L4">
-        <v>1.007675282060992</v>
+        <v>1.023887516494799</v>
       </c>
       <c r="M4">
-        <v>0.9875363487051583</v>
+        <v>1.038220173893348</v>
       </c>
       <c r="N4">
-        <v>1.007121519420319</v>
+        <v>1.012377479995612</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9917294843945296</v>
+        <v>1.020690252513746</v>
       </c>
       <c r="D5">
-        <v>1.009835509025538</v>
+        <v>1.025540686796589</v>
       </c>
       <c r="E5">
-        <v>0.9986626192336091</v>
+        <v>1.02161577136763</v>
       </c>
       <c r="F5">
-        <v>0.9801219081898495</v>
+        <v>1.036322482954467</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036796187068658</v>
+        <v>1.029039458876218</v>
       </c>
       <c r="J5">
-        <v>1.010885951097668</v>
+        <v>1.025197712547429</v>
       </c>
       <c r="K5">
-        <v>1.019594999943586</v>
+        <v>1.02799903148241</v>
       </c>
       <c r="L5">
-        <v>1.008552205939157</v>
+        <v>1.024084080563763</v>
       </c>
       <c r="M5">
-        <v>0.9902355234525971</v>
+        <v>1.038753873196995</v>
       </c>
       <c r="N5">
-        <v>1.007423927996629</v>
+        <v>1.012442790333952</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9919599408744778</v>
+        <v>1.020739438910161</v>
       </c>
       <c r="D6">
-        <v>1.010000606341447</v>
+        <v>1.025576182357995</v>
       </c>
       <c r="E6">
-        <v>0.9988490991629604</v>
+        <v>1.021657717454723</v>
       </c>
       <c r="F6">
-        <v>0.9806160553452065</v>
+        <v>1.03642095444111</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036863107971487</v>
+        <v>1.029049842261565</v>
       </c>
       <c r="J6">
-        <v>1.01103323641865</v>
+        <v>1.025230196314668</v>
       </c>
       <c r="K6">
-        <v>1.019720995987362</v>
+        <v>1.028025634381187</v>
       </c>
       <c r="L6">
-        <v>1.008698720360003</v>
+        <v>1.02411707943481</v>
       </c>
       <c r="M6">
-        <v>0.9906848464173076</v>
+        <v>1.038843400096976</v>
       </c>
       <c r="N6">
-        <v>1.007474431149246</v>
+        <v>1.012453751329014</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9903688586535688</v>
+        <v>1.020401214736409</v>
       </c>
       <c r="D7">
-        <v>1.008860731860618</v>
+        <v>1.025332077949283</v>
       </c>
       <c r="E7">
-        <v>0.9975621225060651</v>
+        <v>1.021369309255548</v>
       </c>
       <c r="F7">
-        <v>0.9771940806631453</v>
+        <v>1.035743388279291</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036399489540346</v>
+        <v>1.028978294089985</v>
       </c>
       <c r="J7">
-        <v>1.010015998149929</v>
+        <v>1.025006779965367</v>
       </c>
       <c r="K7">
-        <v>1.018850413193944</v>
+        <v>1.027842624459066</v>
       </c>
       <c r="L7">
-        <v>1.007687048496308</v>
+        <v>1.023890143335804</v>
       </c>
       <c r="M7">
-        <v>0.9875726787710186</v>
+        <v>1.038227310830315</v>
       </c>
       <c r="N7">
-        <v>1.007125578610111</v>
+        <v>1.012378353003899</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9835518816400232</v>
+        <v>1.018987252976018</v>
       </c>
       <c r="D8">
-        <v>1.003976117204398</v>
+        <v>1.024311003566613</v>
       </c>
       <c r="E8">
-        <v>0.9920608142583897</v>
+        <v>1.020164329753376</v>
       </c>
       <c r="F8">
-        <v>0.9622446025168663</v>
+        <v>1.032899649188759</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034371772098141</v>
+        <v>1.02867548506945</v>
       </c>
       <c r="J8">
-        <v>1.005648210885835</v>
+        <v>1.024071638784455</v>
       </c>
       <c r="K8">
-        <v>1.015102497484985</v>
+        <v>1.027075589594952</v>
       </c>
       <c r="L8">
-        <v>1.003349411757887</v>
+        <v>1.022940844640164</v>
       </c>
       <c r="M8">
-        <v>0.9739615037169319</v>
+        <v>1.03563985862222</v>
       </c>
       <c r="N8">
-        <v>1.00562653077522</v>
+        <v>1.012062490098017</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.970840684098098</v>
+        <v>1.016494667706385</v>
       </c>
       <c r="D9">
-        <v>0.9948645540978304</v>
+        <v>1.022508834850264</v>
       </c>
       <c r="E9">
-        <v>0.9818557495428437</v>
+        <v>1.018042921338489</v>
       </c>
       <c r="F9">
-        <v>0.9329356441382367</v>
+        <v>1.02784262633696</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030417371897444</v>
+        <v>1.028127654655971</v>
       </c>
       <c r="J9">
-        <v>0.9974668868633614</v>
+        <v>1.022418850294671</v>
       </c>
       <c r="K9">
-        <v>1.008041503474156</v>
+        <v>1.025716059888531</v>
       </c>
       <c r="L9">
-        <v>0.9952502279079685</v>
+        <v>1.021265212096009</v>
       </c>
       <c r="M9">
-        <v>0.947219349573191</v>
+        <v>1.031032046176218</v>
       </c>
       <c r="N9">
-        <v>1.00281490738018</v>
+        <v>1.011503208326929</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9618177139695016</v>
+        <v>1.014832171625443</v>
       </c>
       <c r="D10">
-        <v>0.9883924300038727</v>
+        <v>1.021305385357996</v>
       </c>
       <c r="E10">
-        <v>0.9746514074982018</v>
+        <v>1.016629898089391</v>
       </c>
       <c r="F10">
-        <v>0.910734826725648</v>
+        <v>1.02443828580348</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027473387490632</v>
+        <v>1.027752753385907</v>
       </c>
       <c r="J10">
-        <v>0.9916326398506038</v>
+        <v>1.021313602922345</v>
       </c>
       <c r="K10">
-        <v>1.002974473819382</v>
+        <v>1.02480432094096</v>
       </c>
       <c r="L10">
-        <v>0.9894939348129653</v>
+        <v>1.020146161959072</v>
       </c>
       <c r="M10">
-        <v>0.9269273131557063</v>
+        <v>1.027925708076939</v>
       </c>
       <c r="N10">
-        <v>1.000808099644266</v>
+        <v>1.011128530103709</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9577590729986327</v>
+        <v>1.014112086380986</v>
       </c>
       <c r="D11">
-        <v>0.9854791049546375</v>
+        <v>1.020783790714897</v>
       </c>
       <c r="E11">
-        <v>0.9714210568217357</v>
+        <v>1.016018329254592</v>
       </c>
       <c r="F11">
-        <v>0.9002823933655683</v>
+        <v>1.022955877590179</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026110296302747</v>
+        <v>1.027588096590122</v>
       </c>
       <c r="J11">
-        <v>0.9890011868976829</v>
+        <v>1.020834200514592</v>
       </c>
       <c r="K11">
-        <v>1.00068015984688</v>
+        <v>1.024408235325696</v>
       </c>
       <c r="L11">
-        <v>0.9869028335667611</v>
+        <v>1.019661123961071</v>
       </c>
       <c r="M11">
-        <v>0.9173663558161859</v>
+        <v>1.026572021169985</v>
       </c>
       <c r="N11">
-        <v>0.9999027294887808</v>
+        <v>1.010965854109432</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.956226521251246</v>
+        <v>1.013844580499849</v>
       </c>
       <c r="D12">
-        <v>0.9843785536666481</v>
+        <v>1.020589971963041</v>
       </c>
       <c r="E12">
-        <v>0.9702028770228017</v>
+        <v>1.015791206346168</v>
       </c>
       <c r="F12">
-        <v>0.8962496193375384</v>
+        <v>1.022403956779492</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025588991538443</v>
+        <v>1.02752658469152</v>
       </c>
       <c r="J12">
-        <v>0.988006360066468</v>
+        <v>1.020656004117533</v>
       </c>
       <c r="K12">
-        <v>0.9998112828550837</v>
+        <v>1.02426091527386</v>
       </c>
       <c r="L12">
-        <v>0.9859241086683177</v>
+        <v>1.019480885744787</v>
       </c>
       <c r="M12">
-        <v>0.9136765989504403</v>
+        <v>1.026067868503834</v>
       </c>
       <c r="N12">
-        <v>0.9995604374075067</v>
+        <v>1.010905362863421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9565564297188468</v>
+        <v>1.01390196299905</v>
       </c>
       <c r="D13">
-        <v>0.9846154913036448</v>
+        <v>1.020631550169345</v>
       </c>
       <c r="E13">
-        <v>0.9704650378298844</v>
+        <v>1.015839923142829</v>
       </c>
       <c r="F13">
-        <v>0.8971219303581818</v>
+        <v>1.022522404626768</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025701524277748</v>
+        <v>1.027539795122845</v>
       </c>
       <c r="J13">
-        <v>0.988220569702197</v>
+        <v>1.02069423352799</v>
       </c>
       <c r="K13">
-        <v>0.9999984438461298</v>
+        <v>1.024292524827432</v>
       </c>
       <c r="L13">
-        <v>0.986134811682585</v>
+        <v>1.01951955079843</v>
       </c>
       <c r="M13">
-        <v>0.9144747526355473</v>
+        <v>1.026176071899135</v>
       </c>
       <c r="N13">
-        <v>0.999634141272907</v>
+        <v>1.010918341439774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9576329158588537</v>
+        <v>1.014089974970428</v>
       </c>
       <c r="D14">
-        <v>0.9853885201887729</v>
+        <v>1.020767771139111</v>
       </c>
       <c r="E14">
-        <v>0.9713207452646344</v>
+        <v>1.015999554373969</v>
       </c>
       <c r="F14">
-        <v>0.899952274027502</v>
+        <v>1.022910282163377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026067522513816</v>
+        <v>1.027583019171069</v>
       </c>
       <c r="J14">
-        <v>0.9889193192500541</v>
+        <v>1.020819473302648</v>
       </c>
       <c r="K14">
-        <v>1.00060868876427</v>
+        <v>1.024396061815355</v>
       </c>
       <c r="L14">
-        <v>0.9868222733735899</v>
+        <v>1.019646226919915</v>
       </c>
       <c r="M14">
-        <v>0.9170643333626726</v>
+        <v>1.02653037516828</v>
       </c>
       <c r="N14">
-        <v>0.9998745612989856</v>
+        <v>1.010960855235472</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9582927898337125</v>
+        <v>1.014205810761742</v>
       </c>
       <c r="D15">
-        <v>0.9858623099012919</v>
+        <v>1.020851691362957</v>
       </c>
       <c r="E15">
-        <v>0.971845497856459</v>
+        <v>1.016097913844352</v>
       </c>
       <c r="F15">
-        <v>0.9016753853897723</v>
+        <v>1.023149094367293</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026290980308714</v>
+        <v>1.027609604352818</v>
       </c>
       <c r="J15">
-        <v>0.9893474848803043</v>
+        <v>1.020896621056979</v>
       </c>
       <c r="K15">
-        <v>1.000982418240774</v>
+        <v>1.024459828327017</v>
       </c>
       <c r="L15">
-        <v>0.9872436359284987</v>
+        <v>1.019724266485184</v>
       </c>
       <c r="M15">
-        <v>0.9186407518433313</v>
+        <v>1.026748495320531</v>
       </c>
       <c r="N15">
-        <v>1.000021879707373</v>
+        <v>1.010987040613292</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9620836980178656</v>
+        <v>1.014879956636432</v>
       </c>
       <c r="D16">
-        <v>0.9885833004170402</v>
+        <v>1.021339991386672</v>
       </c>
       <c r="E16">
-        <v>0.9748633277330971</v>
+        <v>1.016670491702875</v>
       </c>
       <c r="F16">
-        <v>0.9114089264859571</v>
+        <v>1.024536489912218</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027561853254718</v>
+        <v>1.027763632007691</v>
       </c>
       <c r="J16">
-        <v>0.9918049363599548</v>
+        <v>1.021345401826931</v>
       </c>
       <c r="K16">
-        <v>1.003124498432427</v>
+        <v>1.02483058040025</v>
       </c>
       <c r="L16">
-        <v>0.9896637020703347</v>
+        <v>1.020178342086515</v>
       </c>
       <c r="M16">
-        <v>0.9275437846222272</v>
+        <v>1.028015362958671</v>
       </c>
       <c r="N16">
-        <v>1.000867376326868</v>
+        <v>1.011139317118479</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9644195954345172</v>
+        <v>1.015302771915246</v>
       </c>
       <c r="D17">
-        <v>0.9902592959483371</v>
+        <v>1.021646156246189</v>
       </c>
       <c r="E17">
-        <v>0.9767256004514534</v>
+        <v>1.017029728804213</v>
       </c>
       <c r="F17">
-        <v>0.9172747728768548</v>
+        <v>1.025404514305107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028334305316985</v>
+        <v>1.027859626284448</v>
       </c>
       <c r="J17">
-        <v>0.9933172449339275</v>
+        <v>1.021626688861313</v>
       </c>
       <c r="K17">
-        <v>1.004440298107528</v>
+        <v>1.025062795246819</v>
       </c>
       <c r="L17">
-        <v>0.9911544033909647</v>
+        <v>1.020463041921634</v>
       </c>
       <c r="M17">
-        <v>0.9329073823566987</v>
+        <v>1.028807700783044</v>
       </c>
       <c r="N17">
-        <v>1.001387645352062</v>
+        <v>1.01123471867335</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9657676217820846</v>
+        <v>1.015549372460862</v>
       </c>
       <c r="D18">
-        <v>0.9912263155606528</v>
+        <v>1.021824689538618</v>
       </c>
       <c r="E18">
-        <v>0.9778012641999292</v>
+        <v>1.017239292771852</v>
       </c>
       <c r="F18">
-        <v>0.9206171743385977</v>
+        <v>1.025910019579038</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028776477165752</v>
+        <v>1.02791539422479</v>
       </c>
       <c r="J18">
-        <v>0.9941893215288202</v>
+        <v>1.021790679515402</v>
       </c>
       <c r="K18">
-        <v>1.005198232525022</v>
+        <v>1.025198117229768</v>
       </c>
       <c r="L18">
-        <v>0.9920145037401644</v>
+        <v>1.02062905609907</v>
       </c>
       <c r="M18">
-        <v>0.9359629277293734</v>
+        <v>1.029269028712133</v>
       </c>
       <c r="N18">
-        <v>1.001687636906245</v>
+        <v>1.011290322564939</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9662248716630908</v>
+        <v>1.015633453467254</v>
       </c>
       <c r="D19">
-        <v>0.9915543007084153</v>
+        <v>1.021885556757764</v>
       </c>
       <c r="E19">
-        <v>0.9781662899681798</v>
+        <v>1.01731075328616</v>
       </c>
       <c r="F19">
-        <v>0.9217440667022931</v>
+        <v>1.026082249560185</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028925869339157</v>
+        <v>1.027934371739236</v>
       </c>
       <c r="J19">
-        <v>0.9944850194830429</v>
+        <v>1.02184658267757</v>
       </c>
       <c r="K19">
-        <v>1.005455092151431</v>
+        <v>1.025244237367289</v>
       </c>
       <c r="L19">
-        <v>0.9923062211949436</v>
+        <v>1.020685654802528</v>
       </c>
       <c r="M19">
-        <v>0.9369929888874103</v>
+        <v>1.029426190078919</v>
       </c>
       <c r="N19">
-        <v>1.001789351637569</v>
+        <v>1.01130927490406</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9641704864616178</v>
+        <v>1.015257409968144</v>
       </c>
       <c r="D20">
-        <v>0.9900805813309784</v>
+        <v>1.021613312575174</v>
       </c>
       <c r="E20">
-        <v>0.9765269001958542</v>
+        <v>1.016991183273179</v>
       </c>
       <c r="F20">
-        <v>0.9166537524652911</v>
+        <v>1.025311466403529</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0282523070282</v>
+        <v>1.027849350181403</v>
       </c>
       <c r="J20">
-        <v>0.9931560361782051</v>
+        <v>1.021596517638292</v>
       </c>
       <c r="K20">
-        <v>1.004300123481507</v>
+        <v>1.025037893731922</v>
       </c>
       <c r="L20">
-        <v>0.9909954472573181</v>
+        <v>1.020432501133211</v>
       </c>
       <c r="M20">
-        <v>0.9323396044309114</v>
+        <v>1.028722776484462</v>
       </c>
       <c r="N20">
-        <v>1.001332188073216</v>
+        <v>1.011224487359144</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9573166272177702</v>
+        <v>1.014034611090816</v>
       </c>
       <c r="D21">
-        <v>0.9851614067668115</v>
+        <v>1.020727659546568</v>
       </c>
       <c r="E21">
-        <v>0.9710692801878389</v>
+        <v>1.015952545831936</v>
       </c>
       <c r="F21">
-        <v>0.8991231867611685</v>
+        <v>1.022796097790999</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02596017512869</v>
+        <v>1.027570300474064</v>
       </c>
       <c r="J21">
-        <v>0.9887140492933288</v>
+        <v>1.02078259677206</v>
       </c>
       <c r="K21">
-        <v>1.000429461618634</v>
+        <v>1.02436557818112</v>
       </c>
       <c r="L21">
-        <v>0.9866202955293549</v>
+        <v>1.019608925997642</v>
       </c>
       <c r="M21">
-        <v>0.9163057964351331</v>
+        <v>1.026426078791905</v>
       </c>
       <c r="N21">
-        <v>0.9998039339278808</v>
+        <v>1.010948337810929</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9528613165828362</v>
+        <v>1.013265590211567</v>
       </c>
       <c r="D22">
-        <v>0.9819608160301845</v>
+        <v>1.020170378183225</v>
       </c>
       <c r="E22">
-        <v>0.9675310088875049</v>
+        <v>1.015299749864645</v>
       </c>
       <c r="F22">
-        <v>0.8872137217460829</v>
+        <v>1.021207110880638</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024431055378012</v>
+        <v>1.027392818771223</v>
       </c>
       <c r="J22">
-        <v>0.9858195441463434</v>
+        <v>1.020270128532292</v>
       </c>
       <c r="K22">
-        <v>0.9978983077642027</v>
+        <v>1.023941730724577</v>
       </c>
       <c r="L22">
-        <v>0.9837743411798681</v>
+        <v>1.019090685763015</v>
       </c>
       <c r="M22">
-        <v>0.9054077414606547</v>
+        <v>1.024974321860671</v>
       </c>
       <c r="N22">
-        <v>0.9988080124551139</v>
+        <v>1.010774328788072</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9552378544943099</v>
+        <v>1.013673282267789</v>
       </c>
       <c r="D23">
-        <v>0.9836684145523937</v>
+        <v>1.02046584532969</v>
       </c>
       <c r="E23">
-        <v>0.9694174764009593</v>
+        <v>1.015645787274745</v>
       </c>
       <c r="F23">
-        <v>0.8936213769917892</v>
+        <v>1.022050185131939</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025250713686846</v>
+        <v>1.027487098532466</v>
       </c>
       <c r="J23">
-        <v>0.9873642331961878</v>
+        <v>1.020541866716482</v>
       </c>
       <c r="K23">
-        <v>0.9992500012783619</v>
+        <v>1.024166528439564</v>
       </c>
       <c r="L23">
-        <v>0.9852926238179082</v>
+        <v>1.01936545545925</v>
       </c>
       <c r="M23">
-        <v>0.9112716671869864</v>
+        <v>1.025744671343255</v>
       </c>
       <c r="N23">
-        <v>0.9993394980616652</v>
+        <v>1.010866610673895</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9642830926174535</v>
+        <v>1.015277907143123</v>
       </c>
       <c r="D24">
-        <v>0.990161367280347</v>
+        <v>1.021628153363481</v>
       </c>
       <c r="E24">
-        <v>0.976616716829047</v>
+        <v>1.017008600256356</v>
       </c>
       <c r="F24">
-        <v>0.9169346073894898</v>
+        <v>1.025353513211312</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028289384316722</v>
+        <v>1.027853994201918</v>
       </c>
       <c r="J24">
-        <v>0.9932289103479675</v>
+        <v>1.021610150960681</v>
       </c>
       <c r="K24">
-        <v>1.004363491754662</v>
+        <v>1.025049146041173</v>
       </c>
       <c r="L24">
-        <v>0.9910673016357658</v>
+        <v>1.020446301344669</v>
       </c>
       <c r="M24">
-        <v>0.9325963826791313</v>
+        <v>1.028761152680546</v>
       </c>
       <c r="N24">
-        <v>1.001357257523265</v>
+        <v>1.01122911058022</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9742171558134235</v>
+        <v>1.017139189676581</v>
       </c>
       <c r="D25">
-        <v>0.9972853774547243</v>
+        <v>1.022975088012227</v>
       </c>
       <c r="E25">
-        <v>0.9845600025492007</v>
+        <v>1.018591132984799</v>
       </c>
       <c r="F25">
-        <v>0.9409241315707142</v>
+        <v>1.029155649167152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031489564266128</v>
+        <v>1.028270980436014</v>
       </c>
       <c r="J25">
-        <v>0.9996444987369325</v>
+        <v>1.022846728464215</v>
       </c>
       <c r="K25">
-        <v>1.009925981118514</v>
+        <v>1.026068475440108</v>
       </c>
       <c r="L25">
-        <v>0.9974028286140068</v>
+        <v>1.021698745473913</v>
       </c>
       <c r="M25">
-        <v>0.9545144175186396</v>
+        <v>1.032229207218026</v>
       </c>
       <c r="N25">
-        <v>1.003563636733446</v>
+        <v>1.011648116419564</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018623176781927</v>
+        <v>0.9817520578017521</v>
       </c>
       <c r="D2">
-        <v>1.024047941851572</v>
+        <v>1.002686269766173</v>
       </c>
       <c r="E2">
-        <v>1.019854250497469</v>
+        <v>0.9906117272504728</v>
       </c>
       <c r="F2">
-        <v>1.032164508047733</v>
+        <v>0.9582146153189738</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028596566759497</v>
+        <v>1.033825453555167</v>
       </c>
       <c r="J2">
-        <v>1.023830561357466</v>
+        <v>1.004492605621897</v>
       </c>
       <c r="K2">
-        <v>1.026877588401623</v>
+        <v>1.014108307017947</v>
       </c>
       <c r="L2">
-        <v>1.022696264795027</v>
+        <v>1.002203423908695</v>
       </c>
       <c r="M2">
-        <v>1.034970528133968</v>
+        <v>0.9702885041359632</v>
       </c>
       <c r="N2">
-        <v>1.011980991928231</v>
+        <v>1.005229648572762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019700392141955</v>
+        <v>0.9870239062212474</v>
       </c>
       <c r="D3">
-        <v>1.024826104283549</v>
+        <v>1.006464110199483</v>
       </c>
       <c r="E3">
-        <v>1.02077192242974</v>
+        <v>0.9948601893131827</v>
       </c>
       <c r="F3">
-        <v>1.034336153691982</v>
+        <v>0.9699187949228505</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028828947857333</v>
+        <v>1.035412814543169</v>
       </c>
       <c r="J3">
-        <v>1.024543509490078</v>
+        <v>1.007874673795471</v>
       </c>
       <c r="K3">
-        <v>1.027462837790671</v>
+        <v>1.017014944298053</v>
       </c>
       <c r="L3">
-        <v>1.023419744398527</v>
+        <v>1.005559260172663</v>
       </c>
       <c r="M3">
-        <v>1.036947245532658</v>
+        <v>0.980951610611443</v>
       </c>
       <c r="N3">
-        <v>1.012221928229621</v>
+        <v>1.006390883520399</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020397300185583</v>
+        <v>0.9903503560386341</v>
       </c>
       <c r="D4">
-        <v>1.025329252403386</v>
+        <v>1.008847475847282</v>
       </c>
       <c r="E4">
-        <v>1.021365971661623</v>
+        <v>0.9975471630314542</v>
       </c>
       <c r="F4">
-        <v>1.035735540219732</v>
+        <v>0.9771541430377793</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028977463979154</v>
+        <v>1.036394076308057</v>
       </c>
       <c r="J4">
-        <v>1.02500419355662</v>
+        <v>1.010004163640761</v>
       </c>
       <c r="K4">
-        <v>1.027840505261647</v>
+        <v>1.018840279657385</v>
       </c>
       <c r="L4">
-        <v>1.023887516494799</v>
+        <v>1.007675282060992</v>
       </c>
       <c r="M4">
-        <v>1.038220173893348</v>
+        <v>0.9875363487051568</v>
       </c>
       <c r="N4">
-        <v>1.012377479995612</v>
+        <v>1.007121519420318</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020690252513746</v>
+        <v>0.9917294843945293</v>
       </c>
       <c r="D5">
-        <v>1.025540686796589</v>
+        <v>1.009835509025538</v>
       </c>
       <c r="E5">
-        <v>1.02161577136763</v>
+        <v>0.9986626192336086</v>
       </c>
       <c r="F5">
-        <v>1.036322482954467</v>
+        <v>0.98012190818985</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029039458876218</v>
+        <v>1.036796187068658</v>
       </c>
       <c r="J5">
-        <v>1.025197712547429</v>
+        <v>1.010885951097668</v>
       </c>
       <c r="K5">
-        <v>1.02799903148241</v>
+        <v>1.019594999943586</v>
       </c>
       <c r="L5">
-        <v>1.024084080563763</v>
+        <v>1.008552205939157</v>
       </c>
       <c r="M5">
-        <v>1.038753873196995</v>
+        <v>0.9902355234525976</v>
       </c>
       <c r="N5">
-        <v>1.012442790333952</v>
+        <v>1.007423927996629</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020739438910161</v>
+        <v>0.9919599408744766</v>
       </c>
       <c r="D6">
-        <v>1.025576182357995</v>
+        <v>1.010000606341446</v>
       </c>
       <c r="E6">
-        <v>1.021657717454723</v>
+        <v>0.9988490991629589</v>
       </c>
       <c r="F6">
-        <v>1.03642095444111</v>
+        <v>0.980616055345206</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029049842261565</v>
+        <v>1.036863107971486</v>
       </c>
       <c r="J6">
-        <v>1.025230196314668</v>
+        <v>1.011033236418649</v>
       </c>
       <c r="K6">
-        <v>1.028025634381187</v>
+        <v>1.019720995987361</v>
       </c>
       <c r="L6">
-        <v>1.02411707943481</v>
+        <v>1.008698720360001</v>
       </c>
       <c r="M6">
-        <v>1.038843400096976</v>
+        <v>0.990684846417307</v>
       </c>
       <c r="N6">
-        <v>1.012453751329014</v>
+        <v>1.007474431149245</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020401214736409</v>
+        <v>0.9903688586535694</v>
       </c>
       <c r="D7">
-        <v>1.025332077949283</v>
+        <v>1.008860731860618</v>
       </c>
       <c r="E7">
-        <v>1.021369309255548</v>
+        <v>0.9975621225060657</v>
       </c>
       <c r="F7">
-        <v>1.035743388279291</v>
+        <v>0.9771940806631459</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028978294089985</v>
+        <v>1.036399489540347</v>
       </c>
       <c r="J7">
-        <v>1.025006779965367</v>
+        <v>1.010015998149929</v>
       </c>
       <c r="K7">
-        <v>1.027842624459066</v>
+        <v>1.018850413193944</v>
       </c>
       <c r="L7">
-        <v>1.023890143335804</v>
+        <v>1.007687048496308</v>
       </c>
       <c r="M7">
-        <v>1.038227310830315</v>
+        <v>0.9875726787710192</v>
       </c>
       <c r="N7">
-        <v>1.012378353003899</v>
+        <v>1.007125578610111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018987252976018</v>
+        <v>0.9835518816400229</v>
       </c>
       <c r="D8">
-        <v>1.024311003566613</v>
+        <v>1.003976117204398</v>
       </c>
       <c r="E8">
-        <v>1.020164329753376</v>
+        <v>0.9920608142583893</v>
       </c>
       <c r="F8">
-        <v>1.032899649188759</v>
+        <v>0.9622446025168662</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02867548506945</v>
+        <v>1.034371772098141</v>
       </c>
       <c r="J8">
-        <v>1.024071638784455</v>
+        <v>1.005648210885835</v>
       </c>
       <c r="K8">
-        <v>1.027075589594952</v>
+        <v>1.015102497484985</v>
       </c>
       <c r="L8">
-        <v>1.022940844640164</v>
+        <v>1.003349411757887</v>
       </c>
       <c r="M8">
-        <v>1.03563985862222</v>
+        <v>0.973961503716932</v>
       </c>
       <c r="N8">
-        <v>1.012062490098017</v>
+        <v>1.00562653077522</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016494667706385</v>
+        <v>0.9708406840980984</v>
       </c>
       <c r="D9">
-        <v>1.022508834850264</v>
+        <v>0.9948645540978307</v>
       </c>
       <c r="E9">
-        <v>1.018042921338489</v>
+        <v>0.9818557495428438</v>
       </c>
       <c r="F9">
-        <v>1.02784262633696</v>
+        <v>0.9329356441382369</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028127654655971</v>
+        <v>1.030417371897444</v>
       </c>
       <c r="J9">
-        <v>1.022418850294671</v>
+        <v>0.9974668868633618</v>
       </c>
       <c r="K9">
-        <v>1.025716059888531</v>
+        <v>1.008041503474157</v>
       </c>
       <c r="L9">
-        <v>1.021265212096009</v>
+        <v>0.9952502279079685</v>
       </c>
       <c r="M9">
-        <v>1.031032046176218</v>
+        <v>0.9472193495731913</v>
       </c>
       <c r="N9">
-        <v>1.011503208326929</v>
+        <v>1.00281490738018</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014832171625443</v>
+        <v>0.9618177139695019</v>
       </c>
       <c r="D10">
-        <v>1.021305385357996</v>
+        <v>0.9883924300038728</v>
       </c>
       <c r="E10">
-        <v>1.016629898089391</v>
+        <v>0.9746514074982021</v>
       </c>
       <c r="F10">
-        <v>1.02443828580348</v>
+        <v>0.9107348267256474</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027752753385907</v>
+        <v>1.027473387490632</v>
       </c>
       <c r="J10">
-        <v>1.021313602922345</v>
+        <v>0.9916326398506041</v>
       </c>
       <c r="K10">
-        <v>1.02480432094096</v>
+        <v>1.002974473819382</v>
       </c>
       <c r="L10">
-        <v>1.020146161959072</v>
+        <v>0.9894939348129654</v>
       </c>
       <c r="M10">
-        <v>1.027925708076939</v>
+        <v>0.9269273131557056</v>
       </c>
       <c r="N10">
-        <v>1.011128530103709</v>
+        <v>1.000808099644266</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014112086380986</v>
+        <v>0.9577590729986316</v>
       </c>
       <c r="D11">
-        <v>1.020783790714897</v>
+        <v>0.9854791049546365</v>
       </c>
       <c r="E11">
-        <v>1.016018329254592</v>
+        <v>0.9714210568217347</v>
       </c>
       <c r="F11">
-        <v>1.022955877590179</v>
+        <v>0.9002823933655678</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027588096590122</v>
+        <v>1.026110296302746</v>
       </c>
       <c r="J11">
-        <v>1.020834200514592</v>
+        <v>0.9890011868976818</v>
       </c>
       <c r="K11">
-        <v>1.024408235325696</v>
+        <v>1.000680159846879</v>
       </c>
       <c r="L11">
-        <v>1.019661123961071</v>
+        <v>0.9869028335667601</v>
       </c>
       <c r="M11">
-        <v>1.026572021169985</v>
+        <v>0.9173663558161851</v>
       </c>
       <c r="N11">
-        <v>1.010965854109432</v>
+        <v>0.9999027294887803</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013844580499849</v>
+        <v>0.9562265212512459</v>
       </c>
       <c r="D12">
-        <v>1.020589971963041</v>
+        <v>0.9843785536666478</v>
       </c>
       <c r="E12">
-        <v>1.015791206346168</v>
+        <v>0.9702028770228015</v>
       </c>
       <c r="F12">
-        <v>1.022403956779492</v>
+        <v>0.8962496193375391</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02752658469152</v>
+        <v>1.025588991538443</v>
       </c>
       <c r="J12">
-        <v>1.020656004117533</v>
+        <v>0.9880063600664678</v>
       </c>
       <c r="K12">
-        <v>1.02426091527386</v>
+        <v>0.9998112828550837</v>
       </c>
       <c r="L12">
-        <v>1.019480885744787</v>
+        <v>0.9859241086683175</v>
       </c>
       <c r="M12">
-        <v>1.026067868503834</v>
+        <v>0.9136765989504411</v>
       </c>
       <c r="N12">
-        <v>1.010905362863421</v>
+        <v>0.9995604374075066</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01390196299905</v>
+        <v>0.956556429718847</v>
       </c>
       <c r="D13">
-        <v>1.020631550169345</v>
+        <v>0.9846154913036451</v>
       </c>
       <c r="E13">
-        <v>1.015839923142829</v>
+        <v>0.9704650378298849</v>
       </c>
       <c r="F13">
-        <v>1.022522404626768</v>
+        <v>0.8971219303581809</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027539795122845</v>
+        <v>1.025701524277748</v>
       </c>
       <c r="J13">
-        <v>1.02069423352799</v>
+        <v>0.9882205697021973</v>
       </c>
       <c r="K13">
-        <v>1.024292524827432</v>
+        <v>0.9999984438461302</v>
       </c>
       <c r="L13">
-        <v>1.01951955079843</v>
+        <v>0.9861348116825853</v>
       </c>
       <c r="M13">
-        <v>1.026176071899135</v>
+        <v>0.9144747526355463</v>
       </c>
       <c r="N13">
-        <v>1.010918341439774</v>
+        <v>0.9996341412729072</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014089974970428</v>
+        <v>0.9576329158588535</v>
       </c>
       <c r="D14">
-        <v>1.020767771139111</v>
+        <v>0.9853885201887727</v>
       </c>
       <c r="E14">
-        <v>1.015999554373969</v>
+        <v>0.971320745264634</v>
       </c>
       <c r="F14">
-        <v>1.022910282163377</v>
+        <v>0.8999522740275019</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027583019171069</v>
+        <v>1.026067522513816</v>
       </c>
       <c r="J14">
-        <v>1.020819473302648</v>
+        <v>0.9889193192500538</v>
       </c>
       <c r="K14">
-        <v>1.024396061815355</v>
+        <v>1.00060868876427</v>
       </c>
       <c r="L14">
-        <v>1.019646226919915</v>
+        <v>0.9868222733735894</v>
       </c>
       <c r="M14">
-        <v>1.02653037516828</v>
+        <v>0.9170643333626726</v>
       </c>
       <c r="N14">
-        <v>1.010960855235472</v>
+        <v>0.9998745612989854</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014205810761742</v>
+        <v>0.9582927898337126</v>
       </c>
       <c r="D15">
-        <v>1.020851691362957</v>
+        <v>0.9858623099012922</v>
       </c>
       <c r="E15">
-        <v>1.016097913844352</v>
+        <v>0.9718454978564594</v>
       </c>
       <c r="F15">
-        <v>1.023149094367293</v>
+        <v>0.9016753853897723</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027609604352818</v>
+        <v>1.026290980308714</v>
       </c>
       <c r="J15">
-        <v>1.020896621056979</v>
+        <v>0.9893474848803046</v>
       </c>
       <c r="K15">
-        <v>1.024459828327017</v>
+        <v>1.000982418240775</v>
       </c>
       <c r="L15">
-        <v>1.019724266485184</v>
+        <v>0.9872436359284991</v>
       </c>
       <c r="M15">
-        <v>1.026748495320531</v>
+        <v>0.9186407518433313</v>
       </c>
       <c r="N15">
-        <v>1.010987040613292</v>
+        <v>1.000021879707373</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014879956636432</v>
+        <v>0.9620836980178665</v>
       </c>
       <c r="D16">
-        <v>1.021339991386672</v>
+        <v>0.9885833004170409</v>
       </c>
       <c r="E16">
-        <v>1.016670491702875</v>
+        <v>0.9748633277330975</v>
       </c>
       <c r="F16">
-        <v>1.024536489912218</v>
+        <v>0.9114089264859568</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027763632007691</v>
+        <v>1.027561853254718</v>
       </c>
       <c r="J16">
-        <v>1.021345401826931</v>
+        <v>0.9918049363599555</v>
       </c>
       <c r="K16">
-        <v>1.02483058040025</v>
+        <v>1.003124498432428</v>
       </c>
       <c r="L16">
-        <v>1.020178342086515</v>
+        <v>0.9896637020703353</v>
       </c>
       <c r="M16">
-        <v>1.028015362958671</v>
+        <v>0.9275437846222271</v>
       </c>
       <c r="N16">
-        <v>1.011139317118479</v>
+        <v>1.000867376326868</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015302771915246</v>
+        <v>0.9644195954345164</v>
       </c>
       <c r="D17">
-        <v>1.021646156246189</v>
+        <v>0.9902592959483364</v>
       </c>
       <c r="E17">
-        <v>1.017029728804213</v>
+        <v>0.976725600451452</v>
       </c>
       <c r="F17">
-        <v>1.025404514305107</v>
+        <v>0.9172747728768557</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027859626284448</v>
+        <v>1.028334305316985</v>
       </c>
       <c r="J17">
-        <v>1.021626688861313</v>
+        <v>0.9933172449339264</v>
       </c>
       <c r="K17">
-        <v>1.025062795246819</v>
+        <v>1.004440298107527</v>
       </c>
       <c r="L17">
-        <v>1.020463041921634</v>
+        <v>0.9911544033909634</v>
       </c>
       <c r="M17">
-        <v>1.028807700783044</v>
+        <v>0.9329073823566996</v>
       </c>
       <c r="N17">
-        <v>1.01123471867335</v>
+        <v>1.001387645352061</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015549372460862</v>
+        <v>0.9657676217820848</v>
       </c>
       <c r="D18">
-        <v>1.021824689538618</v>
+        <v>0.991226315560653</v>
       </c>
       <c r="E18">
-        <v>1.017239292771852</v>
+        <v>0.9778012641999292</v>
       </c>
       <c r="F18">
-        <v>1.025910019579038</v>
+        <v>0.9206171743385982</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02791539422479</v>
+        <v>1.028776477165752</v>
       </c>
       <c r="J18">
-        <v>1.021790679515402</v>
+        <v>0.9941893215288203</v>
       </c>
       <c r="K18">
-        <v>1.025198117229768</v>
+        <v>1.005198232525022</v>
       </c>
       <c r="L18">
-        <v>1.02062905609907</v>
+        <v>0.9920145037401643</v>
       </c>
       <c r="M18">
-        <v>1.029269028712133</v>
+        <v>0.9359629277293736</v>
       </c>
       <c r="N18">
-        <v>1.011290322564939</v>
+        <v>1.001687636906245</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015633453467254</v>
+        <v>0.9662248716630915</v>
       </c>
       <c r="D19">
-        <v>1.021885556757764</v>
+        <v>0.9915543007084158</v>
       </c>
       <c r="E19">
-        <v>1.01731075328616</v>
+        <v>0.9781662899681799</v>
       </c>
       <c r="F19">
-        <v>1.026082249560185</v>
+        <v>0.921744066702294</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027934371739236</v>
+        <v>1.028925869339157</v>
       </c>
       <c r="J19">
-        <v>1.02184658267757</v>
+        <v>0.9944850194830435</v>
       </c>
       <c r="K19">
-        <v>1.025244237367289</v>
+        <v>1.005455092151432</v>
       </c>
       <c r="L19">
-        <v>1.020685654802528</v>
+        <v>0.9923062211949439</v>
       </c>
       <c r="M19">
-        <v>1.029426190078919</v>
+        <v>0.936992988887411</v>
       </c>
       <c r="N19">
-        <v>1.01130927490406</v>
+        <v>1.001789351637569</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015257409968144</v>
+        <v>0.9641704864616182</v>
       </c>
       <c r="D20">
-        <v>1.021613312575174</v>
+        <v>0.9900805813309785</v>
       </c>
       <c r="E20">
-        <v>1.016991183273179</v>
+        <v>0.9765269001958542</v>
       </c>
       <c r="F20">
-        <v>1.025311466403529</v>
+        <v>0.9166537524652927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027849350181403</v>
+        <v>1.028252307028201</v>
       </c>
       <c r="J20">
-        <v>1.021596517638292</v>
+        <v>0.9931560361782054</v>
       </c>
       <c r="K20">
-        <v>1.025037893731922</v>
+        <v>1.004300123481507</v>
       </c>
       <c r="L20">
-        <v>1.020432501133211</v>
+        <v>0.9909954472573181</v>
       </c>
       <c r="M20">
-        <v>1.028722776484462</v>
+        <v>0.9323396044309127</v>
       </c>
       <c r="N20">
-        <v>1.011224487359144</v>
+        <v>1.001332188073217</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014034611090816</v>
+        <v>0.95731662721777</v>
       </c>
       <c r="D21">
-        <v>1.020727659546568</v>
+        <v>0.9851614067668114</v>
       </c>
       <c r="E21">
-        <v>1.015952545831936</v>
+        <v>0.9710692801878386</v>
       </c>
       <c r="F21">
-        <v>1.022796097790999</v>
+        <v>0.8991231867611679</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027570300474064</v>
+        <v>1.02596017512869</v>
       </c>
       <c r="J21">
-        <v>1.02078259677206</v>
+        <v>0.9887140492933286</v>
       </c>
       <c r="K21">
-        <v>1.02436557818112</v>
+        <v>1.000429461618633</v>
       </c>
       <c r="L21">
-        <v>1.019608925997642</v>
+        <v>0.9866202955293546</v>
       </c>
       <c r="M21">
-        <v>1.026426078791905</v>
+        <v>0.9163057964351325</v>
       </c>
       <c r="N21">
-        <v>1.010948337810929</v>
+        <v>0.9998039339278806</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013265590211567</v>
+        <v>0.9528613165828367</v>
       </c>
       <c r="D22">
-        <v>1.020170378183225</v>
+        <v>0.981960816030185</v>
       </c>
       <c r="E22">
-        <v>1.015299749864645</v>
+        <v>0.9675310088875054</v>
       </c>
       <c r="F22">
-        <v>1.021207110880638</v>
+        <v>0.8872137217460835</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027392818771223</v>
+        <v>1.024431055378012</v>
       </c>
       <c r="J22">
-        <v>1.020270128532292</v>
+        <v>0.985819544146344</v>
       </c>
       <c r="K22">
-        <v>1.023941730724577</v>
+        <v>0.9978983077642032</v>
       </c>
       <c r="L22">
-        <v>1.019090685763015</v>
+        <v>0.9837743411798684</v>
       </c>
       <c r="M22">
-        <v>1.024974321860671</v>
+        <v>0.9054077414606554</v>
       </c>
       <c r="N22">
-        <v>1.010774328788072</v>
+        <v>0.998808012455114</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013673282267789</v>
+        <v>0.9552378544943106</v>
       </c>
       <c r="D23">
-        <v>1.02046584532969</v>
+        <v>0.9836684145523944</v>
       </c>
       <c r="E23">
-        <v>1.015645787274745</v>
+        <v>0.9694174764009601</v>
       </c>
       <c r="F23">
-        <v>1.022050185131939</v>
+        <v>0.8936213769917908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027487098532466</v>
+        <v>1.025250713686846</v>
       </c>
       <c r="J23">
-        <v>1.020541866716482</v>
+        <v>0.9873642331961887</v>
       </c>
       <c r="K23">
-        <v>1.024166528439564</v>
+        <v>0.9992500012783626</v>
       </c>
       <c r="L23">
-        <v>1.01936545545925</v>
+        <v>0.9852926238179088</v>
       </c>
       <c r="M23">
-        <v>1.025744671343255</v>
+        <v>0.9112716671869879</v>
       </c>
       <c r="N23">
-        <v>1.010866610673895</v>
+        <v>0.9993394980616656</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015277907143123</v>
+        <v>0.9642830926174537</v>
       </c>
       <c r="D24">
-        <v>1.021628153363481</v>
+        <v>0.9901613672803472</v>
       </c>
       <c r="E24">
-        <v>1.017008600256356</v>
+        <v>0.9766167168290472</v>
       </c>
       <c r="F24">
-        <v>1.025353513211312</v>
+        <v>0.9169346073894894</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027853994201918</v>
+        <v>1.028289384316722</v>
       </c>
       <c r="J24">
-        <v>1.021610150960681</v>
+        <v>0.9932289103479677</v>
       </c>
       <c r="K24">
-        <v>1.025049146041173</v>
+        <v>1.004363491754662</v>
       </c>
       <c r="L24">
-        <v>1.020446301344669</v>
+        <v>0.9910673016357658</v>
       </c>
       <c r="M24">
-        <v>1.028761152680546</v>
+        <v>0.9325963826791307</v>
       </c>
       <c r="N24">
-        <v>1.01122911058022</v>
+        <v>1.001357257523265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017139189676581</v>
+        <v>0.9742171558134226</v>
       </c>
       <c r="D25">
-        <v>1.022975088012227</v>
+        <v>0.9972853774547237</v>
       </c>
       <c r="E25">
-        <v>1.018591132984799</v>
+        <v>0.9845600025492001</v>
       </c>
       <c r="F25">
-        <v>1.029155649167152</v>
+        <v>0.9409241315707146</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028270980436014</v>
+        <v>1.031489564266127</v>
       </c>
       <c r="J25">
-        <v>1.022846728464215</v>
+        <v>0.9996444987369317</v>
       </c>
       <c r="K25">
-        <v>1.026068475440108</v>
+        <v>1.009925981118514</v>
       </c>
       <c r="L25">
-        <v>1.021698745473913</v>
+        <v>0.997402828614006</v>
       </c>
       <c r="M25">
-        <v>1.032229207218026</v>
+        <v>0.9545144175186401</v>
       </c>
       <c r="N25">
-        <v>1.011648116419564</v>
+        <v>1.003563636733445</v>
       </c>
     </row>
   </sheetData>
